--- a/matching_table.xlsx
+++ b/matching_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVPDC01A\Users$\gittesnoeren\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A111636B-2685-4212-B6B3-35E9456B24B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{918FA978-F85D-45A1-8714-1E8DB5DA3551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/matching_table.xlsx
+++ b/matching_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVPDC01A\Users$\gittesnoeren\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVPDC01A\Users$\gittesnoeren\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{918FA978-F85D-45A1-8714-1E8DB5DA3551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BF09C-F4A2-4EBC-BAD9-6B55B7FA8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16625,7 +16625,7 @@
   <dimension ref="A1:F1825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matching_table.xlsx
+++ b/matching_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVPDC01A\Users$\gittesnoeren\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD0A6E6-CEF2-4DE4-AB5D-9CA9ACAE1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FEBB73B-5981-45E9-A29D-4646B6C6EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16210,7 +16210,7 @@
     <t>OS94KF</t>
   </si>
   <si>
-    <t>Kenteken</t>
+    <t xml:space="preserve">Kenteken </t>
   </si>
 </sst>
 </file>
@@ -16615,7 +16615,7 @@
   <dimension ref="A1:C1825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
